--- a/data/trans_bre/P19C04-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P19C04-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P19C04-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P19C04-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,2</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,79</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,7</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,42</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-29,44%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,74%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,6%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-45,88%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,54; 1,04</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,85; 3,75</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,78; 3,48</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,51; 1,62</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-57,3; 12,6</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,53; 33,16</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,73; 50,91</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-81,22; 54,75</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,15</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,64</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,25</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,75</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,47%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-36,03%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,74%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-24,25%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,27; 0,73</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,83; -2,6</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,5; 1,97</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,54; 1,76</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,0; 6,16</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,84; -15,9</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,64; 17,17</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,66; 19,42</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,56</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,45</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,67</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,2</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-30,14%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-37,01%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-25,9%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-27,06%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,77; -1,38</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,91; -4,28</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,7; -0,01</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,77; 0,06</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,34; -9,33</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,98; -20,87</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,53; 0,73</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,19; 1,15</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,55</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,52</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,03</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,09</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-27,4%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-26,36%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-33,64%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-30,09%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,56; -1,75</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,49; -1,24</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,54; -1,41</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,55; -0,13</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,04; -6,89</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,67; -5,11</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,46; -9,25</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,63; -1,33</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,05</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,38</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,35</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,09</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-23,0%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-29,52%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-50,27%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-30,48%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,69; 1,26</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,01; -2,73</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,5; -7,37</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,99; -2,03</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,07; 7,17</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,77; -9,27</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-65,01; -30,94</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,56; -11,14</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,24</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,72</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,3</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,66</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-33,39%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-35,09%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-23,03%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-35,64%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,58; -3,6</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,52; -7,86</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,41; -0,25</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,22; -5,12</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,86; -13,67</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,15; -21,86</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,87; -0,96</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,3; -22,65</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,26</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,16</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,83</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,64</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-26,38%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-28,99%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-27,05%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-29,5%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,41; -3,12</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,42; -5,04</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,86; -2,82</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,31; -2,99</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,97; -16,54</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,04; -21,28</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,39; -17,49</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,01; -20,2</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P19C04-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P19C04-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-3,42</t>
+          <t>-3,53</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-45,88%</t>
+          <t>-47,47%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-9,51; 1,62</t>
+          <t>-10,2; 1,47</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,14 +703,14 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-81,22; 54,75</t>
+          <t>-81,93; 49,71</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-2,75</t>
+          <t>-3,66</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-24,25%</t>
+          <t>-32,92%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-7,54; 1,76</t>
+          <t>-9,13; 0,59</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,14 +803,14 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-52,66; 19,42</t>
+          <t>-61,72; 6,1</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-3,2</t>
+          <t>-2,88</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-27,06%</t>
+          <t>-24,9%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,77; 0,06</t>
+          <t>-6,43; 0,35</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,14 +903,14 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-47,19; 1,15</t>
+          <t>-45,86; 4,94</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-4,09</t>
+          <t>-1,15</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-30,09%</t>
+          <t>-11,09%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-7,55; -0,13</t>
+          <t>-6,36; 5,3</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,14 +1003,14 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-46,63; -1,33</t>
+          <t>-42,87; 104,5</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-6,09</t>
+          <t>-5,93</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-30,48%</t>
+          <t>-29,91%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-9,99; -2,03</t>
+          <t>-9,7; -1,85</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,14 +1103,14 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-44,56; -11,14</t>
+          <t>-43,88; -10,58</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>-9,52</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>-14,81</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>-9,24</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-13,72</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-6,3</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-8,66</t>
+          <t>-12,81</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-33,39%</t>
+          <t>-32,32%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-35,09%</t>
+          <t>-38,35%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-23,03%</t>
+          <t>-34,31%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-35,64%</t>
+          <t>-54,86%</t>
         </is>
       </c>
     </row>
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-15,58; -3,6</t>
+          <t>-17,78; -1,75</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-20,52; -7,86</t>
+          <t>-22,62; -6,77</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-12,41; -0,25</t>
+          <t>-16,37; -1,75</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-14,22; -5,12</t>
+          <t>-22,04; -5,9</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-48,86; -13,67</t>
+          <t>-50,53; -6,74</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-47,15; -21,86</t>
+          <t>-52,29; -19,59</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-40,87; -0,96</t>
+          <t>-52,35; -6,81</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-55,3; -22,65</t>
+          <t>-84,08; -26,25</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-5,26</t>
+          <t>-8,03</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-7,16</t>
+          <t>-12,84</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-4,83</t>
+          <t>-2,9</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-4,64</t>
+          <t>-5,97</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-26,38%</t>
+          <t>-32,53%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-28,99%</t>
+          <t>-32,28%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-27,05%</t>
+          <t>-10,32%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-29,5%</t>
+          <t>-23,54%</t>
         </is>
       </c>
     </row>
@@ -1268,54 +1268,154 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>-18,46; 1,94</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>-21,97; -3,68</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>-12,01; 6,87</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>-11,46; -1,44</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>-58,37; 13,68</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>-48,56; -11,67</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-36,33; 29,28</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-39,05; -6,38</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>-5,26</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>-7,16</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>-4,83</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>-3,95</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>-26,38%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>-28,99%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>-27,05%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>-27,28%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>-7,41; -3,12</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>-9,42; -5,04</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>-6,86; -2,82</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-6,31; -2,99</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>-6,32; -0,77</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>-34,97; -16,54</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>-36,04; -21,28</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>-36,39; -17,49</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>-38,01; -20,2</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-39,93; -8,27</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1325,6 +1425,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_bre/P19C04-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P19C04-Edad-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,54; 1,04</t>
+          <t>-7,14; 1,15</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,85; 3,75</t>
+          <t>-5,85; 4,36</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,78; 3,48</t>
+          <t>-4,93; 3,26</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-10,2; 1,47</t>
+          <t>-10,62; 1,06</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-57,3; 12,6</t>
+          <t>-54,49; 14,53</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-36,53; 33,16</t>
+          <t>-36,09; 40,19</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-41,73; 50,91</t>
+          <t>-42,25; 49,78</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-81,93; 49,71</t>
+          <t>-83,57; 44,82</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-7,27; 0,73</t>
+          <t>-7,65; 0,91</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-10,83; -2,6</t>
+          <t>-10,74; -2,52</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-6,5; 1,97</t>
+          <t>-6,59; 1,89</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-9,13; 0,59</t>
+          <t>-9,17; 1,12</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-45,0; 6,16</t>
+          <t>-46,09; 8,39</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-51,84; -15,9</t>
+          <t>-50,61; -13,92</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-39,64; 17,17</t>
+          <t>-39,06; 16,36</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-61,72; 6,1</t>
+          <t>-63,26; 13,47</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,77; -1,38</t>
+          <t>-10,09; -1,15</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-12,91; -4,28</t>
+          <t>-12,85; -4,04</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,7; -0,01</t>
+          <t>-7,94; 0,04</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,43; 0,35</t>
+          <t>-6,5; 0,53</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-47,34; -9,33</t>
+          <t>-47,66; -6,22</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-50,98; -20,87</t>
+          <t>-50,82; -19,6</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-46,53; 0,73</t>
+          <t>-48,19; 0,54</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-45,86; 4,94</t>
+          <t>-47,3; 5,98</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-13,56; -1,75</t>
+          <t>-13,24; -1,42</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-11,49; -1,24</t>
+          <t>-12,11; -1,78</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-10,54; -1,41</t>
+          <t>-10,24; -1,62</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-6,36; 5,3</t>
+          <t>-6,43; 5,2</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-44,04; -6,89</t>
+          <t>-43,17; -6,04</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-41,67; -5,11</t>
+          <t>-43,55; -7,75</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-51,46; -9,25</t>
+          <t>-51,76; -10,24</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-42,87; 104,5</t>
+          <t>-43,02; 90,11</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-12,69; 1,26</t>
+          <t>-13,6; 0,13</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-16,01; -2,73</t>
+          <t>-16,74; -2,55</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-19,5; -7,37</t>
+          <t>-20,03; -7,84</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-9,7; -1,85</t>
+          <t>-10,26; -2,39</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-42,07; 7,17</t>
+          <t>-44,68; 1,22</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-45,77; -9,27</t>
+          <t>-46,78; -8,81</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-65,01; -30,94</t>
+          <t>-65,9; -32,41</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-43,88; -10,58</t>
+          <t>-44,7; -12,83</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-17,78; -1,75</t>
+          <t>-16,85; -1,82</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-22,62; -6,77</t>
+          <t>-23,08; -7,37</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-16,37; -1,75</t>
+          <t>-16,71; -2,11</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-22,04; -5,9</t>
+          <t>-21,3; -6,3</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-50,53; -6,74</t>
+          <t>-50,52; -7,28</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-52,29; -19,59</t>
+          <t>-52,34; -21,54</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-52,35; -6,81</t>
+          <t>-54,11; -9,3</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-84,08; -26,25</t>
+          <t>-84,45; -27,34</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-18,46; 1,94</t>
+          <t>-18,33; 1,01</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-21,97; -3,68</t>
+          <t>-22,41; -4,28</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-12,01; 6,87</t>
+          <t>-11,81; 6,93</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-11,46; -1,44</t>
+          <t>-10,8; -1,58</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-58,37; 13,68</t>
+          <t>-58,8; 6,3</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-48,56; -11,67</t>
+          <t>-48,51; -12,38</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-36,33; 29,28</t>
+          <t>-36,56; 30,98</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-39,05; -6,38</t>
+          <t>-38,39; -6,34</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-7,41; -3,12</t>
+          <t>-7,1; -3,19</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-9,42; -5,04</t>
+          <t>-9,28; -4,76</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-6,86; -2,82</t>
+          <t>-7,18; -3,01</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-6,32; -0,77</t>
+          <t>-6,13; -0,7</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-34,97; -16,54</t>
+          <t>-34,32; -17,24</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-36,04; -21,28</t>
+          <t>-35,81; -20,37</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-36,39; -17,49</t>
+          <t>-37,62; -17,67</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-39,93; -8,27</t>
+          <t>-39,83; -8,22</t>
         </is>
       </c>
     </row>
